--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,166 +467,186 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.299999952316284</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>45600</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.299999952316284</v>
+      </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>1.320000052452087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.299999952316284</v>
+      </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="E4" t="n">
-        <v>1.450000047683716</v>
+        <v>1.309999942779541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>45614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.299999952316284</v>
+      </c>
       <c r="C5" t="n">
-        <v>1.5</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="D5" t="n">
-        <v>1.450000047683716</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="E5" t="n">
-        <v>1.439999997615814</v>
+        <v>1.330000042915344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="C6" t="n">
-        <v>1.450000047683716</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="D6" t="n">
-        <v>1.439999997615814</v>
+        <v>1.330000042915344</v>
       </c>
       <c r="E6" t="n">
-        <v>1.389999985694885</v>
+        <v>1.320000052452087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.450000047683716</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="C7" t="n">
-        <v>1.439999997615814</v>
+        <v>1.330000042915344</v>
       </c>
       <c r="D7" t="n">
-        <v>1.389999985694885</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="E7" t="n">
-        <v>1.399999976158142</v>
+        <v>1.269999980926514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.439999997615814</v>
+        <v>1.330000042915344</v>
       </c>
       <c r="C8" t="n">
-        <v>1.389999985694885</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="D8" t="n">
-        <v>1.399999976158142</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="E8" t="n">
-        <v>1.360000014305115</v>
+        <v>1.269999980926514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.389999985694885</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="C9" t="n">
-        <v>1.399999976158142</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="D9" t="n">
-        <v>1.360000014305115</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="E9" t="n">
-        <v>1.350000023841858</v>
+        <v>1.330000042915344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.399999976158142</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="C10" t="n">
-        <v>1.360000014305115</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="D10" t="n">
-        <v>1.350000023841858</v>
+        <v>1.330000042915344</v>
       </c>
       <c r="E10" t="n">
-        <v>1.309999942779541</v>
+        <v>1.389999985694885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.360000014305115</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="C11" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E11" t="n">
         <v>1.350000023841858</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.389999985694885</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.350000023841858</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.389999985694885</v>
       </c>
       <c r="E12" t="n">
         <v>1.379999995231628</v>
@@ -634,212 +654,42 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.309999942779541</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="C13" t="n">
-        <v>1.389999985694885</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="D13" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="E13" t="n">
-        <v>1.279999971389771</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.389999985694885</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="C14" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="D14" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.299999952316284</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.320000052452087</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.309999942779541</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.330000042915344</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.320000052452087</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.309999942779541</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.269999980926514</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.269999980926514</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.320000052452087</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.330000042915344</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.389999985694885</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.389999985694885</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -852,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,338 +734,198 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.321885228157043</v>
+        <v>1.273096084594727</v>
       </c>
       <c r="C2" t="n">
-        <v>1.393762230873108</v>
+        <v>1.289115428924561</v>
       </c>
       <c r="D2" t="n">
-        <v>1.313431262969971</v>
+        <v>1.24005115032196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45600</v>
       </c>
       <c r="B3" t="n">
-        <v>1.298743009567261</v>
+        <v>1.305827260017395</v>
       </c>
       <c r="C3" t="n">
-        <v>1.392718434333801</v>
+        <v>1.277844905853271</v>
       </c>
       <c r="D3" t="n">
-        <v>1.351912260055542</v>
+        <v>1.272817730903625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45607</v>
       </c>
       <c r="B4" t="n">
-        <v>1.24630606174469</v>
+        <v>1.292275309562683</v>
       </c>
       <c r="C4" t="n">
-        <v>1.393197178840637</v>
+        <v>1.277329921722412</v>
       </c>
       <c r="D4" t="n">
-        <v>1.351680040359497</v>
+        <v>1.239468574523926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45614</v>
       </c>
       <c r="B5" t="n">
-        <v>1.316846966743469</v>
+        <v>1.300288915634155</v>
       </c>
       <c r="C5" t="n">
-        <v>1.384765863418579</v>
+        <v>1.278547525405884</v>
       </c>
       <c r="D5" t="n">
-        <v>1.361670851707458</v>
+        <v>1.253111004829407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45621</v>
       </c>
       <c r="B6" t="n">
-        <v>1.358855605125427</v>
+        <v>1.311275720596313</v>
       </c>
       <c r="C6" t="n">
-        <v>1.384335160255432</v>
+        <v>1.282708525657654</v>
       </c>
       <c r="D6" t="n">
-        <v>1.37834906578064</v>
+        <v>1.266664147377014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45628</v>
       </c>
       <c r="B7" t="n">
-        <v>1.419401407241821</v>
+        <v>1.398569226264954</v>
       </c>
       <c r="C7" t="n">
-        <v>1.402423739433289</v>
+        <v>1.383670091629028</v>
       </c>
       <c r="D7" t="n">
-        <v>1.361286282539368</v>
+        <v>1.356650710105896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45635</v>
       </c>
       <c r="B8" t="n">
-        <v>1.368562459945679</v>
+        <v>1.39197039604187</v>
       </c>
       <c r="C8" t="n">
-        <v>1.431622982025146</v>
+        <v>1.397068023681641</v>
       </c>
       <c r="D8" t="n">
-        <v>1.365661025047302</v>
+        <v>1.386545300483704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45642</v>
       </c>
       <c r="B9" t="n">
-        <v>1.343521356582642</v>
+        <v>1.392887353897095</v>
       </c>
       <c r="C9" t="n">
-        <v>1.413471698760986</v>
+        <v>1.392791271209717</v>
       </c>
       <c r="D9" t="n">
-        <v>1.378694295883179</v>
+        <v>1.366196513175964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45649</v>
       </c>
       <c r="B10" t="n">
-        <v>1.354016304016113</v>
+        <v>1.354666233062744</v>
       </c>
       <c r="C10" t="n">
-        <v>1.356527328491211</v>
+        <v>1.351994276046753</v>
       </c>
       <c r="D10" t="n">
-        <v>1.377673745155334</v>
+        <v>1.359769821166992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45663</v>
       </c>
       <c r="B11" t="n">
-        <v>1.352170825004578</v>
+        <v>1.357130289077759</v>
       </c>
       <c r="C11" t="n">
-        <v>1.352942109107971</v>
+        <v>1.388558626174927</v>
       </c>
       <c r="D11" t="n">
-        <v>1.361530423164368</v>
+        <v>1.374434113502502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45670</v>
       </c>
       <c r="B12" t="n">
-        <v>1.356020092964172</v>
+        <v>1.376416206359863</v>
       </c>
       <c r="C12" t="n">
-        <v>1.341618299484253</v>
+        <v>1.398748517036438</v>
       </c>
       <c r="D12" t="n">
-        <v>1.342994213104248</v>
+        <v>1.411201953887939</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45677</v>
       </c>
       <c r="B13" t="n">
-        <v>1.305292248725891</v>
+        <v>1.373084902763367</v>
       </c>
       <c r="C13" t="n">
-        <v>1.29271125793457</v>
+        <v>1.412281155586243</v>
       </c>
       <c r="D13" t="n">
-        <v>1.314103484153748</v>
+        <v>1.422349572181702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45684</v>
       </c>
       <c r="B14" t="n">
-        <v>1.385280847549438</v>
+        <v>1.350685000419617</v>
       </c>
       <c r="C14" t="n">
-        <v>1.365996479988098</v>
+        <v>1.377073049545288</v>
       </c>
       <c r="D14" t="n">
-        <v>1.349063634872437</v>
+        <v>1.390714645385742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45691</v>
       </c>
       <c r="B15" t="n">
-        <v>1.37055492401123</v>
+        <v>1.352718472480774</v>
       </c>
       <c r="C15" t="n">
-        <v>1.339452981948853</v>
+        <v>1.35599946975708</v>
       </c>
       <c r="D15" t="n">
-        <v>1.280558705329895</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.317405104637146</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.279741883277893</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.267878770828247</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.296784162521362</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.271223783493042</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.273881673812866</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.311577558517456</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.283479690551758</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.271232724189758</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.317903399467468</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.348895788192749</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.332216501235962</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.341500043869019</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.397948503494263</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.385673403739929</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.335428237915039</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.370571970939636</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.347769737243652</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.325670003890991</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.333741188049316</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.343656539916992</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.326158404350281</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.338383913040161</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.340346455574036</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.335348129272461</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.387497544288635</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.368241906166077</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45677</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.363961815834045</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.427131772041321</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.374599695205688</v>
+        <v>1.384754300117493</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,212 +484,413 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.379999995231628</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.320000052452087</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.279999971389771</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.320000052452087</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1.309999942779541</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.299999952316284</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.320000052452087</v>
-      </c>
+        <v>45523</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1.309999942779541</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.330000042915344</v>
+        <v>1.450000047683716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.320000052452087</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.309999942779541</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.330000042915344</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="E6" t="n">
-        <v>1.320000052452087</v>
+        <v>1.439999997615814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.309999942779541</v>
+        <v>1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.330000042915344</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="D7" t="n">
-        <v>1.320000052452087</v>
+        <v>1.439999997615814</v>
       </c>
       <c r="E7" t="n">
-        <v>1.269999980926514</v>
+        <v>1.389999985694885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.330000042915344</v>
+        <v>1.450000047683716</v>
       </c>
       <c r="C8" t="n">
-        <v>1.320000052452087</v>
+        <v>1.439999997615814</v>
       </c>
       <c r="D8" t="n">
-        <v>1.269999980926514</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="E8" t="n">
-        <v>1.269999980926514</v>
+        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.320000052452087</v>
+        <v>1.439999997615814</v>
       </c>
       <c r="C9" t="n">
-        <v>1.269999980926514</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="D9" t="n">
-        <v>1.269999980926514</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="E9" t="n">
-        <v>1.330000042915344</v>
+        <v>1.360000014305115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.269999980926514</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="C10" t="n">
-        <v>1.269999980926514</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="D10" t="n">
-        <v>1.330000042915344</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="E10" t="n">
-        <v>1.389999985694885</v>
+        <v>1.350000023841858</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.269999980926514</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="C11" t="n">
-        <v>1.330000042915344</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="D11" t="n">
-        <v>1.389999985694885</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="E11" t="n">
-        <v>1.350000023841858</v>
+        <v>1.309999942779541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.330000042915344</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="C12" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="E12" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.379999995231628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.389999985694885</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.350000023841858</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.350000023841858</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="C14" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1.279999971389771</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.299999952316284</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.320000052452087</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.309999942779541</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.299999952316284</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.330000042915344</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.320000052452087</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.269999980926514</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.269999980926514</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.320000052452087</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.330000042915344</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.389999985694885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.350000023841858</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.379999995231628</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.389999985694885</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B28" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -702,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,195 +938,377 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.273096084594727</v>
+        <v>1.281787395477295</v>
       </c>
       <c r="C2" t="n">
-        <v>1.289115428924561</v>
+        <v>1.287233948707581</v>
       </c>
       <c r="D2" t="n">
-        <v>1.24005115032196</v>
+        <v>1.309970736503601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45600</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.305827260017395</v>
+        <v>1.356926679611206</v>
       </c>
       <c r="C3" t="n">
-        <v>1.277844905853271</v>
+        <v>1.326305866241455</v>
       </c>
       <c r="D3" t="n">
-        <v>1.272817730903625</v>
+        <v>1.295395374298096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45607</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.292275309562683</v>
+        <v>1.283337831497192</v>
       </c>
       <c r="C4" t="n">
-        <v>1.277329921722412</v>
+        <v>1.363038301467896</v>
       </c>
       <c r="D4" t="n">
-        <v>1.239468574523926</v>
+        <v>1.333594679832458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45614</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.300288915634155</v>
+        <v>1.283130884170532</v>
       </c>
       <c r="C5" t="n">
-        <v>1.278547525405884</v>
+        <v>1.403826117515564</v>
       </c>
       <c r="D5" t="n">
-        <v>1.253111004829407</v>
+        <v>1.303758978843689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45621</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.311275720596313</v>
+        <v>1.291255354881287</v>
       </c>
       <c r="C6" t="n">
-        <v>1.282708525657654</v>
+        <v>1.380234122276306</v>
       </c>
       <c r="D6" t="n">
-        <v>1.266664147377014</v>
+        <v>1.311297178268433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.398569226264954</v>
+        <v>1.43509316444397</v>
       </c>
       <c r="C7" t="n">
-        <v>1.383670091629028</v>
+        <v>1.400519967079163</v>
       </c>
       <c r="D7" t="n">
-        <v>1.356650710105896</v>
+        <v>1.335130095481873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45635</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.39197039604187</v>
+        <v>1.352256655693054</v>
       </c>
       <c r="C8" t="n">
-        <v>1.397068023681641</v>
+        <v>1.389981746673584</v>
       </c>
       <c r="D8" t="n">
-        <v>1.386545300483704</v>
+        <v>1.339267015457153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.392887353897095</v>
+        <v>1.321958184242249</v>
       </c>
       <c r="C9" t="n">
-        <v>1.392791271209717</v>
+        <v>1.386214256286621</v>
       </c>
       <c r="D9" t="n">
-        <v>1.366196513175964</v>
+        <v>1.335333466529846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45649</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.354666233062744</v>
+        <v>1.293724775314331</v>
       </c>
       <c r="C10" t="n">
-        <v>1.351994276046753</v>
+        <v>1.391600489616394</v>
       </c>
       <c r="D10" t="n">
-        <v>1.359769821166992</v>
+        <v>1.347863078117371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45663</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.357130289077759</v>
+        <v>1.298120617866516</v>
       </c>
       <c r="C11" t="n">
-        <v>1.388558626174927</v>
+        <v>1.352689862251282</v>
       </c>
       <c r="D11" t="n">
-        <v>1.374434113502502</v>
+        <v>1.327023983001709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45670</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.376416206359863</v>
+        <v>1.292765498161316</v>
       </c>
       <c r="C12" t="n">
-        <v>1.398748517036438</v>
+        <v>1.320674657821655</v>
       </c>
       <c r="D12" t="n">
-        <v>1.411201953887939</v>
+        <v>1.326187610626221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45677</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.373084902763367</v>
+        <v>1.322304368019104</v>
       </c>
       <c r="C13" t="n">
-        <v>1.412281155586243</v>
+        <v>1.361047744750977</v>
       </c>
       <c r="D13" t="n">
-        <v>1.422349572181702</v>
+        <v>1.299601554870605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45684</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.350685000419617</v>
+        <v>1.296149611473083</v>
       </c>
       <c r="C14" t="n">
-        <v>1.377073049545288</v>
+        <v>1.300340414047241</v>
       </c>
       <c r="D14" t="n">
-        <v>1.390714645385742</v>
+        <v>1.277924418449402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.321849703788757</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.354997396469116</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.298089027404785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.310084700584412</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.324069499969482</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.284929394721985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.271963834762573</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.266201496124268</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.255842208862305</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.289193630218506</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.275377750396729</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.26037335395813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.295754551887512</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.275829076766968</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.268032312393188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.329426169395447</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.365499258041382</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.340691328048706</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.361915111541748</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.383120059967041</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.348901391029358</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.337389826774597</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.36510705947876</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.329602718353271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.312100648880005</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.309152007102966</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.308425068855286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.308600068092346</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.328439235687256</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.346753001213074</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.34856390953064</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.398935556411743</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.393960356712341</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.348430395126343</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.446325898170471</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.393669366836548</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.34657871723175</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.440665364265442</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.358260869979858</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45691</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.352718472480774</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.35599946975708</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.384754300117493</v>
+      <c r="B28" t="n">
+        <v>1.348909020423889</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.444262742996216</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.357622861862183</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 201/270G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME GALA FRANCE 201/270G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 201/270G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME GALA FRANCE 201/270G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 201/270G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME GALA FRANCE 201/270G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.269999980926514</v>
       </c>
       <c r="C2" t="n">
-        <v>1.299999952316284</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.299999952316284</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.299999952316284</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,19 +487,29 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -507,12 +517,14 @@
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1.450000047683716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +533,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.450000047683716</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.439999997615814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -538,13 +550,13 @@
         <v>1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.450000047683716</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.439999997615814</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1.389999985694885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +567,13 @@
         <v>1.450000047683716</v>
       </c>
       <c r="C8" t="n">
-        <v>1.439999997615814</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.389999985694885</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +584,13 @@
         <v>1.439999997615814</v>
       </c>
       <c r="C9" t="n">
-        <v>1.389999985694885</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.360000014305115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -589,13 +601,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C10" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.360000014305115</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +618,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C11" t="n">
-        <v>1.360000014305115</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1.309999942779541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -623,13 +635,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C12" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.309999942779541</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1.389999985694885</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -640,13 +652,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C13" t="n">
-        <v>1.309999942779541</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1.389999985694885</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -657,13 +669,13 @@
         <v>1.309999942779541</v>
       </c>
       <c r="C14" t="n">
-        <v>1.389999985694885</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.279999971389771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -674,13 +686,13 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C15" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.279999971389771</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.299999952316284</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -691,13 +703,13 @@
         <v>1.379999995231628</v>
       </c>
       <c r="C16" t="n">
-        <v>1.279999971389771</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.299999952316284</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1.320000052452087</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -708,13 +720,13 @@
         <v>1.279999971389771</v>
       </c>
       <c r="C17" t="n">
-        <v>1.299999952316284</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.320000052452087</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>1.309999942779541</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -725,13 +737,13 @@
         <v>1.299999952316284</v>
       </c>
       <c r="C18" t="n">
-        <v>1.320000052452087</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1.309999942779541</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1.330000042915344</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -742,13 +754,13 @@
         <v>1.320000052452087</v>
       </c>
       <c r="C19" t="n">
-        <v>1.309999942779541</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.330000042915344</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1.320000052452087</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +771,13 @@
         <v>1.309999942779541</v>
       </c>
       <c r="C20" t="n">
-        <v>1.330000042915344</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1.320000052452087</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.269999980926514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -776,13 +788,13 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C21" t="n">
-        <v>1.320000052452087</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.269999980926514</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.269999980926514</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -793,13 +805,13 @@
         <v>1.320000052452087</v>
       </c>
       <c r="C22" t="n">
-        <v>1.269999980926514</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.269999980926514</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.330000042915344</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +822,13 @@
         <v>1.269999980926514</v>
       </c>
       <c r="C23" t="n">
-        <v>1.269999980926514</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.330000042915344</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>1.389999985694885</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -827,13 +839,13 @@
         <v>1.269999980926514</v>
       </c>
       <c r="C24" t="n">
-        <v>1.330000042915344</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1.389999985694885</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -844,13 +856,13 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C25" t="n">
-        <v>1.389999985694885</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.379999995231628</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -861,12 +873,14 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C26" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.379999995231628</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -876,10 +890,14 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C27" t="n">
-        <v>1.379999995231628</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -888,9 +906,15 @@
       <c r="B28" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -938,13 +962,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.281787395477295</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.287233948707581</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.309970736503601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -952,13 +976,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.356926679611206</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.326305866241455</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.295395374298096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -966,13 +990,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.283337831497192</v>
+        <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.363038301467896</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.333594679832458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -980,13 +1004,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.283130884170532</v>
+        <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>1.403826117515564</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.303758978843689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -994,13 +1018,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.291255354881287</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.380234122276306</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.311297178268433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1008,13 +1032,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.43509316444397</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.400519967079163</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.335130095481873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1022,13 +1046,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.352256655693054</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.389981746673584</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.339267015457153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1036,13 +1060,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.321958184242249</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.386214256286621</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1.335333466529846</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1050,13 +1074,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.293724775314331</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.391600489616394</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.347863078117371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1064,13 +1088,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.298120617866516</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.352689862251282</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.327023983001709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1078,13 +1102,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.292765498161316</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.320674657821655</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.326187610626221</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1092,13 +1116,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.322304368019104</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.361047744750977</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.299601554870605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1106,13 +1130,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.296149611473083</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.300340414047241</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.277924418449402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1120,13 +1144,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.321849703788757</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.354997396469116</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.298089027404785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1134,13 +1158,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.310084700584412</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.324069499969482</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.284929394721985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1148,13 +1172,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.271963834762573</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.266201496124268</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.255842208862305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1162,13 +1186,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.289193630218506</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.275377750396729</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.26037335395813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1176,13 +1200,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.295754551887512</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.275829076766968</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.268032312393188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1190,13 +1214,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.329426169395447</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.365499258041382</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.340691328048706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1204,13 +1228,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.361915111541748</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.383120059967041</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.348901391029358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1218,13 +1242,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.337389826774597</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1.36510705947876</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.329602718353271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1232,13 +1256,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.312100648880005</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.309152007102966</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.308425068855286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1246,13 +1270,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.308600068092346</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.328439235687256</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.346753001213074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1260,13 +1284,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.34856390953064</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.398935556411743</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>1.393960356712341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1274,13 +1298,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.348430395126343</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.446325898170471</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.393669366836548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1288,13 +1312,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.34657871723175</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.440665364265442</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.358260869979858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1302,13 +1326,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.348909020423889</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.444262742996216</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.357622861862183</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
